--- a/data/trans_orig/P56S_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89656D58-1EB6-4092-9A85-74F736643A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B13DAF5-7BC0-4369-AC96-6F31B63D3F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AE9986C2-C841-4130-8507-9FA7C14DDB3E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4FCCDBC4-D43F-4478-8C60-80AC672324B2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2628" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="571">
   <si>
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2007 (Tasa respuesta: 2,12%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Ayuda familiar, pública y privada</t>
@@ -98,19 +98,19 @@
     <t>Nadie</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -119,6 +119,219 @@
     <t>0%</t>
   </si>
   <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
     <t>3,54%</t>
   </si>
   <si>
@@ -251,15 +464,294 @@
     <t>15,18%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2012 (Tasa respuesta: 3,93%)</t>
   </si>
   <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
@@ -275,9 +767,6 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
     <t>2,57%</t>
   </si>
   <si>
@@ -287,9 +776,6 @@
     <t>2,07%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>6,54%</t>
   </si>
   <si>
@@ -305,9 +791,6 @@
     <t>8,86%</t>
   </si>
   <si>
-    <t>8,28%</t>
-  </si>
-  <si>
     <t>5,15%</t>
   </si>
   <si>
@@ -344,9 +827,6 @@
     <t>13,25%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
     <t>6,69%</t>
   </si>
   <si>
@@ -437,6 +917,225 @@
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2016 (Tasa respuesta: 3,27%)</t>
   </si>
   <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
     <t>2,42%</t>
   </si>
   <si>
@@ -449,9 +1148,6 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
     <t>3,47%</t>
   </si>
   <si>
@@ -467,9 +1163,6 @@
     <t>4,52%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>9,37%</t>
   </si>
   <si>
@@ -479,9 +1172,6 @@
     <t>2,54%</t>
   </si>
   <si>
-    <t>13,52%</t>
-  </si>
-  <si>
     <t>7,12%</t>
   </si>
   <si>
@@ -491,9 +1181,6 @@
     <t>14,05%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
     <t>21,69%</t>
   </si>
   <si>
@@ -584,202 +1271,487 @@
     <t>Población según si tienen dificultades y necesitan ayuda en las actividades básicas de la vida diaria en 2023 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
 </sst>
 </file>
@@ -1191,8 +2163,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB60CCE-B154-4957-A398-8073D25C5C0D}">
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FB6037-176D-43C7-BC0D-C6A9FE1E94E8}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3512,34 +4484,34 @@
         <v>26</v>
       </c>
       <c r="H52" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="7">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0</v>
+      </c>
+      <c r="O52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M52" s="7">
-        <v>1</v>
-      </c>
-      <c r="N52" s="7">
-        <v>1059</v>
-      </c>
-      <c r="O52" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="P52" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,49 +4520,49 @@
         <v>15</v>
       </c>
       <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7">
+        <v>838</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H53" s="7">
+        <v>3</v>
+      </c>
+      <c r="I53" s="7">
+        <v>2984</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="7">
         <v>4</v>
       </c>
-      <c r="D53" s="7">
-        <v>3461</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F53" s="7" t="s">
+      <c r="N53" s="7">
+        <v>3822</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="P53" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H53" s="7">
-        <v>9</v>
-      </c>
-      <c r="I53" s="7">
-        <v>9739</v>
-      </c>
-      <c r="J53" s="7" t="s">
+      <c r="Q53" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="7">
-        <v>13</v>
-      </c>
-      <c r="N53" s="7">
-        <v>13200</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,34 +4586,34 @@
         <v>26</v>
       </c>
       <c r="H54" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>4534</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="M54" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>4533</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,49 +4622,49 @@
         <v>17</v>
       </c>
       <c r="C55" s="7">
+        <v>11</v>
+      </c>
+      <c r="D55" s="7">
+        <v>10422</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="7">
+        <v>17</v>
+      </c>
+      <c r="I55" s="7">
+        <v>16327</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="7">
-        <v>41451</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H55" s="7">
-        <v>61</v>
-      </c>
-      <c r="I55" s="7">
-        <v>67260</v>
-      </c>
-      <c r="J55" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="L55" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M55" s="7">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="N55" s="7">
-        <v>108710</v>
+        <v>26748</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +4673,49 @@
         <v>18</v>
       </c>
       <c r="C56" s="7">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7">
+        <v>1605</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="7">
+        <v>2</v>
+      </c>
+      <c r="I56" s="7">
+        <v>1827</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M56" s="7">
         <v>4</v>
       </c>
-      <c r="D56" s="7">
-        <v>3369</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H56" s="7">
-        <v>9</v>
-      </c>
-      <c r="I56" s="7">
-        <v>10022</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="7">
-        <v>13</v>
-      </c>
       <c r="N56" s="7">
-        <v>13391</v>
+        <v>3433</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,54 +4724,54 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D57" s="7">
-        <v>48281</v>
+        <v>12865</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I57" s="7">
-        <v>93545</v>
+        <v>22069</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="N57" s="7">
-        <v>141825</v>
+        <v>34934</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
@@ -3817,7 +4789,7 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -3832,7 +4804,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -3847,7 +4819,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +4840,7 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -3883,7 +4855,7 @@
         <v>25</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -3898,7 +4870,7 @@
         <v>25</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,37 +4891,37 @@
         <v>25</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H60" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="7">
-        <v>931</v>
+        <v>0</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M60" s="7">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>0</v>
+      </c>
+      <c r="O60" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M60" s="7">
-        <v>1</v>
-      </c>
-      <c r="N60" s="7">
-        <v>931</v>
-      </c>
-      <c r="O60" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P60" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,7 +4942,7 @@
         <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -3979,13 +4951,13 @@
         <v>1059</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -3994,13 +4966,13 @@
         <v>1059</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4009,49 +4981,49 @@
         <v>15</v>
       </c>
       <c r="C62" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" s="7">
-        <v>3461</v>
+        <v>2623</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="H62" s="7">
+        <v>6</v>
+      </c>
+      <c r="I62" s="7">
+        <v>6755</v>
+      </c>
+      <c r="J62" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" s="7">
         <v>9</v>
       </c>
-      <c r="I62" s="7">
-        <v>9739</v>
-      </c>
-      <c r="J62" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K62" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L62" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M62" s="7">
-        <v>13</v>
-      </c>
       <c r="N62" s="7">
-        <v>13200</v>
+        <v>9378</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,7 +5044,7 @@
         <v>25</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="H63" s="7">
         <v>4</v>
@@ -4081,13 +5053,13 @@
         <v>4534</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="M63" s="7">
         <v>4</v>
@@ -4096,13 +5068,13 @@
         <v>4533</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,49 +5083,49 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D64" s="7">
-        <v>41451</v>
+        <v>31029</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H64" s="7">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I64" s="7">
-        <v>67260</v>
+        <v>50933</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="M64" s="7">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="N64" s="7">
-        <v>108710</v>
+        <v>81962</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,49 +5134,49 @@
         <v>18</v>
       </c>
       <c r="C65" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" s="7">
-        <v>3369</v>
+        <v>1764</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="H65" s="7">
+        <v>7</v>
+      </c>
+      <c r="I65" s="7">
+        <v>8194</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M65" s="7">
         <v>9</v>
       </c>
-      <c r="I65" s="7">
-        <v>10022</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M65" s="7">
-        <v>13</v>
-      </c>
       <c r="N65" s="7">
-        <v>13391</v>
+        <v>9958</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,63 +5185,525 @@
         <v>3</v>
       </c>
       <c r="C66" s="7">
+        <v>39</v>
+      </c>
+      <c r="D66" s="7">
+        <v>35416</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="7">
+        <v>62</v>
+      </c>
+      <c r="I66" s="7">
+        <v>71476</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="7">
+        <v>101</v>
+      </c>
+      <c r="N66" s="7">
+        <v>106891</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="7">
+        <v>0</v>
+      </c>
+      <c r="N68" s="7">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="7">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H69" s="7">
+        <v>1</v>
+      </c>
+      <c r="I69" s="7">
+        <v>931</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M69" s="7">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>931</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1059</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="N70" s="7">
+        <v>1059</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="7">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3461</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H71" s="7">
+        <v>9</v>
+      </c>
+      <c r="I71" s="7">
+        <v>9739</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M71" s="7">
+        <v>13</v>
+      </c>
+      <c r="N71" s="7">
+        <v>13200</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" s="7">
+        <v>4</v>
+      </c>
+      <c r="I72" s="7">
+        <v>4534</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M72" s="7">
+        <v>4</v>
+      </c>
+      <c r="N72" s="7">
+        <v>4533</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7">
+        <v>45</v>
+      </c>
+      <c r="D73" s="7">
+        <v>41451</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73" s="7">
+        <v>61</v>
+      </c>
+      <c r="I73" s="7">
+        <v>67260</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M73" s="7">
+        <v>106</v>
+      </c>
+      <c r="N73" s="7">
+        <v>108710</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7">
+        <v>4</v>
+      </c>
+      <c r="D74" s="7">
+        <v>3369</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" s="7">
+        <v>9</v>
+      </c>
+      <c r="I74" s="7">
+        <v>10022</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M74" s="7">
+        <v>13</v>
+      </c>
+      <c r="N74" s="7">
+        <v>13391</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
         <v>53</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D75" s="7">
         <v>48281</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="E75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="7">
         <v>85</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I75" s="7">
         <v>93545</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="J75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7">
         <v>138</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N75" s="7">
         <v>141825</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="O75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4282,8 +5716,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5117E1D3-F80D-478D-908D-5C51A6B12B49}">
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193CE4DF-BA9F-4BD0-9FA1-BA93437D7023}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4299,7 +5733,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6441,43 +7875,43 @@
         <v>1101</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="H49" s="7">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49" s="7">
         <v>1</v>
       </c>
-      <c r="I49" s="7">
-        <v>992</v>
-      </c>
-      <c r="J49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="7">
-        <v>2</v>
-      </c>
       <c r="N49" s="7">
-        <v>2092</v>
+        <v>1101</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,49 +7920,49 @@
         <v>12</v>
       </c>
       <c r="C50" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D50" s="7">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="F50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="7">
-        <v>3</v>
-      </c>
-      <c r="I50" s="7">
-        <v>4247</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="K50" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="M50" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N50" s="7">
-        <v>6269</v>
+        <v>0</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,49 +7971,49 @@
         <v>13</v>
       </c>
       <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="7">
-        <v>2213</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="7" t="s">
+      <c r="I51" s="7">
+        <v>1931</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H51" s="7">
-        <v>16</v>
-      </c>
-      <c r="I51" s="7">
-        <v>16991</v>
-      </c>
-      <c r="J51" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="L51" s="7" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="M51" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N51" s="7">
-        <v>19205</v>
+        <v>1931</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>93</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,37 +8034,37 @@
         <v>25</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="H52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="7">
-        <v>2137</v>
+        <v>976</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="M52" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N52" s="7">
-        <v>2137</v>
+        <v>976</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,49 +8073,49 @@
         <v>15</v>
       </c>
       <c r="C53" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>4307</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="H53" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I53" s="7">
-        <v>22453</v>
+        <v>2961</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="M53" s="7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="N53" s="7">
-        <v>26761</v>
+        <v>2961</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,49 +8124,49 @@
         <v>16</v>
       </c>
       <c r="C54" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D54" s="7">
-        <v>6498</v>
+        <v>998</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="H54" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>22986</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="M54" s="7">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N54" s="7">
-        <v>29485</v>
+        <v>998</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -6741,49 +8175,49 @@
         <v>17</v>
       </c>
       <c r="C55" s="7">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D55" s="7">
-        <v>60308</v>
+        <v>18337</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="H55" s="7">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I55" s="7">
-        <v>121986</v>
+        <v>28568</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="M55" s="7">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="N55" s="7">
-        <v>182294</v>
+        <v>46905</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -6792,49 +8226,49 @@
         <v>18</v>
       </c>
       <c r="C56" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>2056</v>
+        <v>994</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="H56" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I56" s="7">
-        <v>13452</v>
+        <v>7699</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="M56" s="7">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="N56" s="7">
-        <v>15508</v>
+        <v>8693</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,72 +8277,72 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="D57" s="7">
-        <v>78505</v>
+        <v>21429</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="I57" s="7">
-        <v>205245</v>
+        <v>42135</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="N57" s="7">
-        <v>283750</v>
+        <v>63564</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58" s="7">
-        <v>1101</v>
+        <v>0</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="H58" s="7">
         <v>1</v>
@@ -6917,28 +8351,28 @@
         <v>992</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="K58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="M58" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" s="7">
-        <v>2092</v>
+        <v>992</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="P58" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +8387,13 @@
         <v>2021</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -6968,13 +8402,13 @@
         <v>4247</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>81</v>
+        <v>187</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -6983,13 +8417,13 @@
         <v>6269</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,43 +8438,43 @@
         <v>2213</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="H60" s="7">
+        <v>14</v>
+      </c>
+      <c r="I60" s="7">
+        <v>15061</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M60" s="7">
         <v>16</v>
       </c>
-      <c r="I60" s="7">
-        <v>16991</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L60" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M60" s="7">
-        <v>18</v>
-      </c>
       <c r="N60" s="7">
-        <v>19205</v>
+        <v>17274</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>92</v>
+        <v>199</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,37 +8495,37 @@
         <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="H61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>2137</v>
+        <v>1160</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="M61" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" s="7">
-        <v>2137</v>
+        <v>1160</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,43 +8540,43 @@
         <v>4307</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="H62" s="7">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I62" s="7">
-        <v>22453</v>
+        <v>19493</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>103</v>
+        <v>209</v>
       </c>
       <c r="M62" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N62" s="7">
-        <v>26761</v>
+        <v>23800</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -7151,19 +8585,19 @@
         <v>16</v>
       </c>
       <c r="C63" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D63" s="7">
-        <v>6498</v>
+        <v>5501</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="H63" s="7">
         <v>21</v>
@@ -7172,28 +8606,28 @@
         <v>22986</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>110</v>
+        <v>218</v>
       </c>
       <c r="M63" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N63" s="7">
-        <v>29485</v>
+        <v>28487</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,49 +8636,49 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D64" s="7">
-        <v>60308</v>
+        <v>41971</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>114</v>
+        <v>222</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="H64" s="7">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="I64" s="7">
-        <v>121986</v>
+        <v>93418</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="L64" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M64" s="7">
         <v>119</v>
       </c>
-      <c r="M64" s="7">
-        <v>163</v>
-      </c>
       <c r="N64" s="7">
-        <v>182294</v>
+        <v>135390</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,49 +8687,49 @@
         <v>18</v>
       </c>
       <c r="C65" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65" s="7">
-        <v>2056</v>
+        <v>1062</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="H65" s="7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I65" s="7">
-        <v>13452</v>
+        <v>5753</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>126</v>
+        <v>233</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="M65" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N65" s="7">
-        <v>15508</v>
+        <v>6814</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>129</v>
+        <v>235</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>130</v>
+        <v>236</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -7304,63 +8738,525 @@
         <v>3</v>
       </c>
       <c r="C66" s="7">
+        <v>48</v>
+      </c>
+      <c r="D66" s="7">
+        <v>57076</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="7">
+        <v>147</v>
+      </c>
+      <c r="I66" s="7">
+        <v>163110</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="7">
+        <v>195</v>
+      </c>
+      <c r="N66" s="7">
+        <v>220186</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1101</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H67" s="7">
+        <v>1</v>
+      </c>
+      <c r="I67" s="7">
+        <v>992</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M67" s="7">
+        <v>2</v>
+      </c>
+      <c r="N67" s="7">
+        <v>2092</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>2</v>
+      </c>
+      <c r="D68" s="7">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H68" s="7">
+        <v>3</v>
+      </c>
+      <c r="I68" s="7">
+        <v>4247</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M68" s="7">
+        <v>5</v>
+      </c>
+      <c r="N68" s="7">
+        <v>6269</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="7">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7">
+        <v>2213</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H69" s="7">
+        <v>16</v>
+      </c>
+      <c r="I69" s="7">
+        <v>16991</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="M69" s="7">
+        <v>18</v>
+      </c>
+      <c r="N69" s="7">
+        <v>19205</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="H70" s="7">
+        <v>2</v>
+      </c>
+      <c r="I70" s="7">
+        <v>2137</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M70" s="7">
+        <v>2</v>
+      </c>
+      <c r="N70" s="7">
+        <v>2137</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="7">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>4307</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H71" s="7">
+        <v>20</v>
+      </c>
+      <c r="I71" s="7">
+        <v>22453</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M71" s="7">
+        <v>24</v>
+      </c>
+      <c r="N71" s="7">
+        <v>26761</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>6</v>
+      </c>
+      <c r="D72" s="7">
+        <v>6498</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H72" s="7">
+        <v>21</v>
+      </c>
+      <c r="I72" s="7">
+        <v>22986</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M72" s="7">
+        <v>27</v>
+      </c>
+      <c r="N72" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7">
+        <v>51</v>
+      </c>
+      <c r="D73" s="7">
+        <v>60308</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H73" s="7">
+        <v>112</v>
+      </c>
+      <c r="I73" s="7">
+        <v>121986</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M73" s="7">
+        <v>163</v>
+      </c>
+      <c r="N73" s="7">
+        <v>182294</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2</v>
+      </c>
+      <c r="D74" s="7">
+        <v>2056</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H74" s="7">
+        <v>13</v>
+      </c>
+      <c r="I74" s="7">
+        <v>13452</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M74" s="7">
+        <v>15</v>
+      </c>
+      <c r="N74" s="7">
+        <v>15508</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
         <v>68</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D75" s="7">
         <v>78505</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="E75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="7">
         <v>188</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I75" s="7">
         <v>205245</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="J75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7">
         <v>256</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N75" s="7">
         <v>283750</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="O75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7373,8 +9269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486DA8AD-DCBD-4320-85B8-CF5EB5DBBB08}">
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AD3F0B-4DE4-48F9-8CC1-14EE283D310B}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7390,7 +9286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9538,7 +11434,7 @@
         <v>25</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -9553,7 +11449,7 @@
         <v>25</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -9568,7 +11464,7 @@
         <v>25</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -9589,37 +11485,37 @@
         <v>25</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H50" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="7">
-        <v>2438</v>
+        <v>0</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="K50" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M50" s="7">
-        <v>2</v>
-      </c>
-      <c r="N50" s="7">
-        <v>2438</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="P50" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>137</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -9628,49 +11524,49 @@
         <v>13</v>
       </c>
       <c r="C51" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D51" s="7">
-        <v>4206</v>
+        <v>959</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>140</v>
+        <v>293</v>
       </c>
       <c r="H51" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I51" s="7">
-        <v>7768</v>
+        <v>1698</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>141</v>
+        <v>294</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>143</v>
+        <v>295</v>
       </c>
       <c r="M51" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N51" s="7">
-        <v>11974</v>
+        <v>2657</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>144</v>
+        <v>296</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +11587,7 @@
         <v>25</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H52" s="7">
         <v>0</v>
@@ -9706,7 +11602,7 @@
         <v>25</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="M52" s="7">
         <v>0</v>
@@ -9721,7 +11617,7 @@
         <v>25</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>134</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -9730,49 +11626,49 @@
         <v>15</v>
       </c>
       <c r="C53" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D53" s="7">
-        <v>9746</v>
+        <v>0</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="F53" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="H53" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>24130</v>
+        <v>1033</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>151</v>
+        <v>299</v>
       </c>
       <c r="M53" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="N53" s="7">
-        <v>33876</v>
+        <v>1033</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -9781,49 +11677,49 @@
         <v>16</v>
       </c>
       <c r="C54" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D54" s="7">
-        <v>2837</v>
+        <v>0</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>156</v>
+        <v>25</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="H54" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I54" s="7">
-        <v>6339</v>
+        <v>0</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="M54" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N54" s="7">
-        <v>9176</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>163</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -9832,49 +11728,49 @@
         <v>17</v>
       </c>
       <c r="C55" s="7">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D55" s="7">
-        <v>49476</v>
+        <v>18352</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>164</v>
+        <v>301</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>165</v>
+        <v>302</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>166</v>
+        <v>303</v>
       </c>
       <c r="H55" s="7">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I55" s="7">
-        <v>102500</v>
+        <v>25906</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>167</v>
+        <v>304</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>168</v>
+        <v>305</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="M55" s="7">
-        <v>136</v>
+        <v>43</v>
       </c>
       <c r="N55" s="7">
-        <v>151976</v>
+        <v>44259</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>170</v>
+        <v>307</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>172</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -9883,49 +11779,49 @@
         <v>18</v>
       </c>
       <c r="C56" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" s="7">
-        <v>5831</v>
+        <v>1787</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>173</v>
+        <v>310</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>174</v>
+        <v>311</v>
       </c>
       <c r="H56" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I56" s="7">
-        <v>28613</v>
+        <v>12545</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>176</v>
+        <v>313</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="M56" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="N56" s="7">
-        <v>34444</v>
+        <v>14332</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>178</v>
+        <v>315</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>154</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -9934,54 +11830,54 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D57" s="7">
-        <v>72097</v>
+        <v>21098</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="I57" s="7">
-        <v>171788</v>
+        <v>41182</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
-        <v>215</v>
+        <v>59</v>
       </c>
       <c r="N57" s="7">
-        <v>243885</v>
+        <v>62281</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
@@ -9999,7 +11895,7 @@
         <v>25</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -10014,7 +11910,7 @@
         <v>25</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -10029,7 +11925,7 @@
         <v>25</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -10050,7 +11946,7 @@
         <v>25</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="H59" s="7">
         <v>2</v>
@@ -10059,13 +11955,13 @@
         <v>2438</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="M59" s="7">
         <v>2</v>
@@ -10074,13 +11970,13 @@
         <v>2438</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="P59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>137</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -10089,49 +11985,49 @@
         <v>13</v>
       </c>
       <c r="C60" s="7">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3247</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H60" s="7">
         <v>5</v>
       </c>
-      <c r="D60" s="7">
-        <v>4206</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H60" s="7">
-        <v>6</v>
-      </c>
       <c r="I60" s="7">
-        <v>7768</v>
+        <v>6070</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>142</v>
+        <v>328</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="M60" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N60" s="7">
-        <v>11974</v>
+        <v>9317</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>144</v>
+        <v>330</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>130</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -10152,7 +12048,7 @@
         <v>25</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -10167,7 +12063,7 @@
         <v>25</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>133</v>
+        <v>319</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -10182,7 +12078,7 @@
         <v>25</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -10197,43 +12093,43 @@
         <v>9746</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>147</v>
+        <v>333</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="H62" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I62" s="7">
-        <v>24130</v>
+        <v>23096</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>149</v>
+        <v>335</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>150</v>
+        <v>336</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>151</v>
+        <v>337</v>
       </c>
       <c r="M62" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N62" s="7">
-        <v>33876</v>
+        <v>32843</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>152</v>
+        <v>338</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -10248,13 +12144,13 @@
         <v>2837</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>155</v>
+        <v>341</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>157</v>
+        <v>343</v>
       </c>
       <c r="H63" s="7">
         <v>5</v>
@@ -10263,13 +12159,13 @@
         <v>6339</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>159</v>
+        <v>344</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="M63" s="7">
         <v>8</v>
@@ -10278,13 +12174,13 @@
         <v>9176</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>161</v>
+        <v>346</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -10293,49 +12189,49 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D64" s="7">
-        <v>49476</v>
+        <v>31124</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>164</v>
+        <v>348</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>165</v>
+        <v>349</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>166</v>
+        <v>350</v>
       </c>
       <c r="H64" s="7">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="I64" s="7">
-        <v>102500</v>
+        <v>76594</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>168</v>
+        <v>352</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
       <c r="M64" s="7">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="N64" s="7">
-        <v>151976</v>
+        <v>107718</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>171</v>
+        <v>355</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>172</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -10344,49 +12240,49 @@
         <v>18</v>
       </c>
       <c r="C65" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="7">
-        <v>5831</v>
+        <v>4045</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>49</v>
+        <v>357</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>174</v>
+        <v>358</v>
       </c>
       <c r="H65" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="7">
-        <v>28613</v>
+        <v>16068</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>175</v>
+        <v>359</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>177</v>
+        <v>361</v>
       </c>
       <c r="M65" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N65" s="7">
-        <v>34444</v>
+        <v>20112</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>179</v>
+        <v>363</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>154</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -10395,63 +12291,525 @@
         <v>3</v>
       </c>
       <c r="C66" s="7">
+        <v>58</v>
+      </c>
+      <c r="D66" s="7">
+        <v>50999</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="7">
+        <v>98</v>
+      </c>
+      <c r="I66" s="7">
+        <v>130606</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="7">
+        <v>156</v>
+      </c>
+      <c r="N66" s="7">
+        <v>181605</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H67" s="7">
+        <v>0</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M67" s="7">
+        <v>0</v>
+      </c>
+      <c r="N67" s="7">
+        <v>0</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H68" s="7">
+        <v>2</v>
+      </c>
+      <c r="I68" s="7">
+        <v>2438</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M68" s="7">
+        <v>2</v>
+      </c>
+      <c r="N68" s="7">
+        <v>2438</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="7">
+        <v>5</v>
+      </c>
+      <c r="D69" s="7">
+        <v>4206</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H69" s="7">
+        <v>6</v>
+      </c>
+      <c r="I69" s="7">
+        <v>7768</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M69" s="7">
+        <v>11</v>
+      </c>
+      <c r="N69" s="7">
+        <v>11974</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="7">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H70" s="7">
+        <v>0</v>
+      </c>
+      <c r="I70" s="7">
+        <v>0</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="M70" s="7">
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <v>0</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="7">
+        <v>11</v>
+      </c>
+      <c r="D71" s="7">
+        <v>9746</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H71" s="7">
+        <v>18</v>
+      </c>
+      <c r="I71" s="7">
+        <v>24130</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="M71" s="7">
+        <v>29</v>
+      </c>
+      <c r="N71" s="7">
+        <v>33876</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>3</v>
+      </c>
+      <c r="D72" s="7">
+        <v>2837</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="H72" s="7">
+        <v>5</v>
+      </c>
+      <c r="I72" s="7">
+        <v>6339</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="M72" s="7">
+        <v>8</v>
+      </c>
+      <c r="N72" s="7">
+        <v>9176</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7">
+        <v>54</v>
+      </c>
+      <c r="D73" s="7">
+        <v>49476</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H73" s="7">
+        <v>82</v>
+      </c>
+      <c r="I73" s="7">
+        <v>102500</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M73" s="7">
+        <v>136</v>
+      </c>
+      <c r="N73" s="7">
+        <v>151976</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7">
+        <v>5</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5831</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="H74" s="7">
+        <v>24</v>
+      </c>
+      <c r="I74" s="7">
+        <v>28613</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M74" s="7">
+        <v>29</v>
+      </c>
+      <c r="N74" s="7">
+        <v>34444</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
         <v>78</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D75" s="7">
         <v>72097</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="E75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="7">
         <v>137</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I75" s="7">
         <v>171788</v>
       </c>
-      <c r="J66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="J75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7">
         <v>215</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N75" s="7">
         <v>243885</v>
       </c>
-      <c r="O66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="O75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -10464,8 +12822,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3B48A8-15D9-492E-AC8D-E9F91C36E3E0}">
-  <dimension ref="A1:Q67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80892CE-56E6-44B9-887A-9EA3A5CFF97F}">
+  <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -10481,7 +12839,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>409</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -12617,49 +14975,49 @@
         <v>10</v>
       </c>
       <c r="C49" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D49" s="7">
-        <v>1974</v>
+        <v>0</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F49" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="H49" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I49" s="7">
-        <v>9458</v>
+        <v>1137</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>184</v>
+        <v>410</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>186</v>
+        <v>411</v>
       </c>
       <c r="M49" s="7">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="N49" s="7">
-        <v>11432</v>
+        <v>1137</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -12668,49 +15026,49 @@
         <v>12</v>
       </c>
       <c r="C50" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D50" s="7">
-        <v>8553</v>
+        <v>1764</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>190</v>
+        <v>412</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>191</v>
+        <v>413</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>192</v>
+        <v>414</v>
       </c>
       <c r="H50" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I50" s="7">
-        <v>19501</v>
+        <v>4555</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>193</v>
+        <v>415</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>143</v>
+        <v>414</v>
       </c>
       <c r="M50" s="7">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N50" s="7">
-        <v>28055</v>
+        <v>6319</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>195</v>
+        <v>417</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>98</v>
+        <v>418</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>196</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -12719,49 +15077,49 @@
         <v>13</v>
       </c>
       <c r="C51" s="7">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D51" s="7">
-        <v>15091</v>
+        <v>1502</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>197</v>
+        <v>420</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>198</v>
+        <v>421</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="H51" s="7">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="I51" s="7">
-        <v>52642</v>
+        <v>6112</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>201</v>
+        <v>423</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>202</v>
+        <v>424</v>
       </c>
       <c r="M51" s="7">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N51" s="7">
-        <v>67733</v>
+        <v>7614</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>203</v>
+        <v>425</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>205</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -12770,49 +15128,49 @@
         <v>14</v>
       </c>
       <c r="C52" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D52" s="7">
-        <v>2128</v>
+        <v>0</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F52" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H52" s="7">
-        <v>8</v>
-      </c>
-      <c r="I52" s="7">
-        <v>3708</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="K52" s="7" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>209</v>
+        <v>428</v>
       </c>
       <c r="M52" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N52" s="7">
-        <v>5836</v>
+        <v>0</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -12821,49 +15179,49 @@
         <v>15</v>
       </c>
       <c r="C53" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53" s="7">
-        <v>3866</v>
+        <v>464</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>215</v>
+        <v>389</v>
       </c>
       <c r="H53" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="I53" s="7">
-        <v>20235</v>
+        <v>371</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>216</v>
+        <v>429</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>217</v>
+        <v>24</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>218</v>
+        <v>430</v>
       </c>
       <c r="M53" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="N53" s="7">
-        <v>24101</v>
+        <v>835</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>219</v>
+        <v>431</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>221</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -12872,49 +15230,49 @@
         <v>16</v>
       </c>
       <c r="C54" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D54" s="7">
-        <v>5911</v>
+        <v>1142</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>223</v>
+        <v>434</v>
       </c>
       <c r="H54" s="7">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="I54" s="7">
-        <v>14878</v>
+        <v>1198</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>225</v>
+        <v>435</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="M54" s="7">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="N54" s="7">
-        <v>20789</v>
+        <v>2340</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>227</v>
+        <v>437</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>228</v>
+        <v>438</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -12923,49 +15281,49 @@
         <v>17</v>
       </c>
       <c r="C55" s="7">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="D55" s="7">
-        <v>67123</v>
+        <v>22573</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>230</v>
+        <v>439</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>231</v>
+        <v>440</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>232</v>
+        <v>441</v>
       </c>
       <c r="H55" s="7">
-        <v>267</v>
+        <v>74</v>
       </c>
       <c r="I55" s="7">
-        <v>148762</v>
+        <v>36881</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>233</v>
+        <v>442</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>234</v>
+        <v>443</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>235</v>
+        <v>444</v>
       </c>
       <c r="M55" s="7">
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="N55" s="7">
-        <v>215886</v>
+        <v>59454</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>238</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -12974,49 +15332,49 @@
         <v>18</v>
       </c>
       <c r="C56" s="7">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2205</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="H56" s="7">
+        <v>6</v>
+      </c>
+      <c r="I56" s="7">
+        <v>2744</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="M56" s="7">
         <v>10</v>
       </c>
-      <c r="D56" s="7">
-        <v>5898</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H56" s="7">
-        <v>25</v>
-      </c>
-      <c r="I56" s="7">
-        <v>12759</v>
-      </c>
-      <c r="J56" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M56" s="7">
-        <v>35</v>
-      </c>
       <c r="N56" s="7">
-        <v>18657</v>
+        <v>4948</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -13025,54 +15383,54 @@
         <v>3</v>
       </c>
       <c r="C57" s="7">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="D57" s="7">
-        <v>110546</v>
+        <v>29651</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H57" s="7">
-        <v>515</v>
+        <v>108</v>
       </c>
       <c r="I57" s="7">
-        <v>281943</v>
+        <v>52997</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="M57" s="7">
-        <v>686</v>
+        <v>156</v>
       </c>
       <c r="N57" s="7">
-        <v>392489</v>
+        <v>82648</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>10</v>
@@ -13081,46 +15439,46 @@
         <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>1974</v>
+        <v>1825</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>181</v>
+        <v>453</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>182</v>
+        <v>454</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>183</v>
+        <v>455</v>
       </c>
       <c r="H58" s="7">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I58" s="7">
-        <v>9458</v>
+        <v>7449</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>185</v>
+        <v>456</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>186</v>
+        <v>457</v>
       </c>
       <c r="M58" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N58" s="7">
-        <v>11432</v>
+        <v>9274</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>187</v>
+        <v>458</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>188</v>
+        <v>459</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>189</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -13129,49 +15487,49 @@
         <v>12</v>
       </c>
       <c r="C59" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D59" s="7">
-        <v>8553</v>
+        <v>6131</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>191</v>
+        <v>461</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>192</v>
+        <v>462</v>
       </c>
       <c r="H59" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I59" s="7">
-        <v>19501</v>
+        <v>13168</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>193</v>
+        <v>463</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>194</v>
+        <v>70</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>143</v>
+        <v>464</v>
       </c>
       <c r="M59" s="7">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="N59" s="7">
-        <v>28055</v>
+        <v>19299</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>195</v>
+        <v>465</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>98</v>
+        <v>466</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>196</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -13180,49 +15538,49 @@
         <v>13</v>
       </c>
       <c r="C60" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D60" s="7">
-        <v>15091</v>
+        <v>12457</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>197</v>
+        <v>468</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>198</v>
+        <v>469</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>199</v>
+        <v>470</v>
       </c>
       <c r="H60" s="7">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I60" s="7">
-        <v>52642</v>
+        <v>41174</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>200</v>
+        <v>471</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>201</v>
+        <v>472</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>202</v>
+        <v>473</v>
       </c>
       <c r="M60" s="7">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="N60" s="7">
-        <v>67733</v>
+        <v>53631</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>203</v>
+        <v>474</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>204</v>
+        <v>475</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -13234,46 +15592,46 @@
         <v>3</v>
       </c>
       <c r="D61" s="7">
-        <v>2128</v>
+        <v>1960</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>62</v>
+        <v>476</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>206</v>
+        <v>269</v>
       </c>
       <c r="H61" s="7">
         <v>8</v>
       </c>
       <c r="I61" s="7">
-        <v>3708</v>
+        <v>3286</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>207</v>
+        <v>300</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>208</v>
+        <v>477</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>209</v>
+        <v>478</v>
       </c>
       <c r="M61" s="7">
         <v>11</v>
       </c>
       <c r="N61" s="7">
-        <v>5836</v>
+        <v>5246</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>211</v>
+        <v>479</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>212</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -13282,49 +15640,49 @@
         <v>15</v>
       </c>
       <c r="C62" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" s="7">
-        <v>3866</v>
+        <v>3053</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>214</v>
+        <v>118</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
       <c r="H62" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I62" s="7">
-        <v>20235</v>
+        <v>16488</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>216</v>
+        <v>482</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>217</v>
+        <v>457</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>218</v>
+        <v>483</v>
       </c>
       <c r="M62" s="7">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N62" s="7">
-        <v>24101</v>
+        <v>19541</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>219</v>
+        <v>484</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>220</v>
+        <v>485</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>221</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -13333,49 +15691,49 @@
         <v>16</v>
       </c>
       <c r="C63" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" s="7">
-        <v>5911</v>
+        <v>4340</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>222</v>
+        <v>423</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>145</v>
+        <v>487</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>223</v>
+        <v>488</v>
       </c>
       <c r="H63" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I63" s="7">
-        <v>14878</v>
+        <v>11892</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>224</v>
+        <v>489</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>226</v>
+        <v>491</v>
       </c>
       <c r="M63" s="7">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N63" s="7">
-        <v>20789</v>
+        <v>16232</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>227</v>
+        <v>489</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>228</v>
+        <v>492</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>229</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -13384,49 +15742,49 @@
         <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="D64" s="7">
-        <v>67123</v>
+        <v>39293</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>230</v>
+        <v>494</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>231</v>
+        <v>495</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>232</v>
+        <v>496</v>
       </c>
       <c r="H64" s="7">
-        <v>267</v>
+        <v>193</v>
       </c>
       <c r="I64" s="7">
-        <v>148762</v>
+        <v>95741</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>233</v>
+        <v>497</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>234</v>
+        <v>498</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>235</v>
+        <v>499</v>
       </c>
       <c r="M64" s="7">
-        <v>370</v>
+        <v>261</v>
       </c>
       <c r="N64" s="7">
-        <v>215886</v>
+        <v>135034</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>236</v>
+        <v>500</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>237</v>
+        <v>501</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>238</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -13435,49 +15793,49 @@
         <v>18</v>
       </c>
       <c r="C65" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D65" s="7">
-        <v>5898</v>
+        <v>3348</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>239</v>
+        <v>503</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>123</v>
+        <v>504</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>240</v>
+        <v>505</v>
       </c>
       <c r="H65" s="7">
+        <v>19</v>
+      </c>
+      <c r="I65" s="7">
+        <v>8839</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M65" s="7">
         <v>25</v>
       </c>
-      <c r="I65" s="7">
-        <v>12759</v>
-      </c>
-      <c r="J65" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K65" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L65" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M65" s="7">
-        <v>35</v>
-      </c>
       <c r="N65" s="7">
-        <v>18657</v>
+        <v>12186</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>244</v>
+        <v>509</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>245</v>
+        <v>510</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -13486,63 +15844,525 @@
         <v>3</v>
       </c>
       <c r="C66" s="7">
+        <v>123</v>
+      </c>
+      <c r="D66" s="7">
+        <v>72408</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="7">
+        <v>407</v>
+      </c>
+      <c r="I66" s="7">
+        <v>198036</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="7">
+        <v>530</v>
+      </c>
+      <c r="N66" s="7">
+        <v>270444</v>
+      </c>
+      <c r="O66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q66" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="7">
+        <v>3</v>
+      </c>
+      <c r="D67" s="7">
+        <v>1825</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H67" s="7">
+        <v>16</v>
+      </c>
+      <c r="I67" s="7">
+        <v>8586</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M67" s="7">
+        <v>19</v>
+      </c>
+      <c r="N67" s="7">
+        <v>10411</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="P67" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q67" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="7">
+        <v>14</v>
+      </c>
+      <c r="D68" s="7">
+        <v>7895</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H68" s="7">
+        <v>35</v>
+      </c>
+      <c r="I68" s="7">
+        <v>17723</v>
+      </c>
+      <c r="J68" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="L68" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="M68" s="7">
+        <v>49</v>
+      </c>
+      <c r="N68" s="7">
+        <v>25618</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="7">
+        <v>23</v>
+      </c>
+      <c r="D69" s="7">
+        <v>13960</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H69" s="7">
+        <v>101</v>
+      </c>
+      <c r="I69" s="7">
+        <v>47286</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L69" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M69" s="7">
+        <v>124</v>
+      </c>
+      <c r="N69" s="7">
+        <v>61245</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P69" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q69" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="7">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>1960</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H70" s="7">
+        <v>8</v>
+      </c>
+      <c r="I70" s="7">
+        <v>3286</v>
+      </c>
+      <c r="J70" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K70" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L70" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M70" s="7">
+        <v>11</v>
+      </c>
+      <c r="N70" s="7">
+        <v>5246</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P70" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q70" s="7" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="7">
+        <v>6</v>
+      </c>
+      <c r="D71" s="7">
+        <v>3518</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="H71" s="7">
+        <v>34</v>
+      </c>
+      <c r="I71" s="7">
+        <v>16858</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L71" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M71" s="7">
+        <v>40</v>
+      </c>
+      <c r="N71" s="7">
+        <v>20376</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="P71" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7">
+        <v>9</v>
+      </c>
+      <c r="D72" s="7">
+        <v>5482</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H72" s="7">
+        <v>29</v>
+      </c>
+      <c r="I72" s="7">
+        <v>13090</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="L72" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="M72" s="7">
+        <v>38</v>
+      </c>
+      <c r="N72" s="7">
+        <v>18572</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="P72" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="7">
+        <v>103</v>
+      </c>
+      <c r="D73" s="7">
+        <v>61866</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H73" s="7">
+        <v>267</v>
+      </c>
+      <c r="I73" s="7">
+        <v>132621</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L73" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M73" s="7">
+        <v>370</v>
+      </c>
+      <c r="N73" s="7">
+        <v>194488</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="7">
+        <v>10</v>
+      </c>
+      <c r="D74" s="7">
+        <v>5552</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="H74" s="7">
+        <v>25</v>
+      </c>
+      <c r="I74" s="7">
+        <v>11582</v>
+      </c>
+      <c r="J74" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K74" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L74" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M74" s="7">
+        <v>35</v>
+      </c>
+      <c r="N74" s="7">
+        <v>17135</v>
+      </c>
+      <c r="O74" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="7">
         <v>171</v>
       </c>
-      <c r="D66" s="7">
-        <v>110546</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H66" s="7">
+      <c r="D75" s="7">
+        <v>102059</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="7">
         <v>515</v>
       </c>
-      <c r="I66" s="7">
-        <v>281943</v>
-      </c>
-      <c r="J66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="M66" s="7">
+      <c r="I75" s="7">
+        <v>251032</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="7">
         <v>686</v>
       </c>
-      <c r="N66" s="7">
-        <v>392489</v>
-      </c>
-      <c r="O66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>71</v>
+      <c r="N75" s="7">
+        <v>353092</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q75" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A39"/>
     <mergeCell ref="A40:A48"/>
     <mergeCell ref="A49:A57"/>
     <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
